--- a/excel_files/Comparison - CP001878 & NC_002570.xlsx
+++ b/excel_files/Comparison - CP001878 & NC_002570.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="55">
   <si>
     <t>CP001878</t>
   </si>
@@ -110,6 +110,9 @@
     <t>2.0</t>
   </si>
   <si>
+    <t>8.0</t>
+  </si>
+  <si>
     <t>11.0</t>
   </si>
   <si>
@@ -119,85 +122,64 @@
     <t>16.0</t>
   </si>
   <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>0*</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>2.0*</t>
+  </si>
+  <si>
+    <t>15.5</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>1.0*</t>
+  </si>
+  <si>
     <t>7.0</t>
   </si>
   <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>0*</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>19.5</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>13.5</t>
-  </si>
-  <si>
     <t>17.5</t>
   </si>
   <si>
-    <t>16.5</t>
-  </si>
-  <si>
-    <t>2.0*</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
     <t>14.5</t>
   </si>
   <si>
-    <t>15.5</t>
-  </si>
-  <si>
-    <t>1.0*</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>20.5</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>6.0</t>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>4.5</t>
   </si>
 </sst>
 </file>
@@ -635,37 +617,37 @@
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s">
         <v>30</v>
       </c>
       <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" t="s">
         <v>33</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" t="s">
-        <v>36</v>
       </c>
       <c r="U3" t="s">
         <v>28</v>
@@ -765,37 +747,37 @@
         <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s">
         <v>30</v>
       </c>
       <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" t="s">
         <v>33</v>
-      </c>
-      <c r="N5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" t="s">
-        <v>28</v>
-      </c>
-      <c r="T5" t="s">
-        <v>36</v>
       </c>
       <c r="U5" t="s">
         <v>28</v>
@@ -898,37 +880,37 @@
         <v>31</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L7" t="s">
         <v>30</v>
       </c>
       <c r="M7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" t="s">
         <v>33</v>
-      </c>
-      <c r="N7" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R7" t="s">
-        <v>35</v>
-      </c>
-      <c r="S7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T7" t="s">
-        <v>36</v>
       </c>
       <c r="U7" t="s">
         <v>28</v>
@@ -954,13 +936,13 @@
         <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
         <v>40</v>
@@ -969,37 +951,37 @@
         <v>41</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N8" t="s">
         <v>28</v>
       </c>
       <c r="O8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" t="s">
         <v>42</v>
       </c>
-      <c r="P8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>28</v>
-      </c>
-      <c r="R8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" t="s">
-        <v>28</v>
-      </c>
-      <c r="T8" t="s">
-        <v>43</v>
-      </c>
       <c r="U8" t="s">
         <v>28</v>
       </c>
       <c r="V8" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1007,43 +989,43 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
       </c>
       <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
         <v>44</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>42</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
         <v>46</v>
       </c>
-      <c r="K9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" t="s">
-        <v>47</v>
-      </c>
       <c r="N9" t="s">
         <v>28</v>
       </c>
       <c r="O9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P9" t="s">
         <v>28</v>
@@ -1058,13 +1040,13 @@
         <v>28</v>
       </c>
       <c r="T9" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="U9" t="s">
         <v>28</v>
       </c>
       <c r="V9" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1072,25 +1054,25 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
         <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="J10" t="s">
         <v>29</v>
@@ -1099,16 +1081,16 @@
         <v>27</v>
       </c>
       <c r="L10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N10" t="s">
         <v>28</v>
       </c>
       <c r="O10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="P10" t="s">
         <v>28</v>
@@ -1117,19 +1099,19 @@
         <v>28</v>
       </c>
       <c r="R10" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S10" t="s">
         <v>28</v>
       </c>
       <c r="T10" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="U10" t="s">
         <v>28</v>
       </c>
       <c r="V10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1158,37 +1140,37 @@
         <v>31</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L11" t="s">
         <v>30</v>
       </c>
       <c r="M11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>28</v>
+      </c>
+      <c r="R11" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T11" t="s">
         <v>33</v>
-      </c>
-      <c r="N11" t="s">
-        <v>28</v>
-      </c>
-      <c r="O11" t="s">
-        <v>34</v>
-      </c>
-      <c r="P11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>28</v>
-      </c>
-      <c r="R11" t="s">
-        <v>35</v>
-      </c>
-      <c r="S11" t="s">
-        <v>28</v>
-      </c>
-      <c r="T11" t="s">
-        <v>36</v>
       </c>
       <c r="U11" t="s">
         <v>28</v>
@@ -1202,13 +1184,13 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
         <v>28</v>
@@ -1217,49 +1199,49 @@
         <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" t="s">
         <v>48</v>
       </c>
-      <c r="J12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="M12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12" t="s">
+        <v>42</v>
+      </c>
+      <c r="S12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T12" t="s">
         <v>48</v>
       </c>
-      <c r="L12" t="s">
-        <v>52</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N12" t="s">
-        <v>28</v>
-      </c>
-      <c r="O12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>28</v>
-      </c>
-      <c r="R12" t="s">
-        <v>54</v>
-      </c>
-      <c r="S12" t="s">
-        <v>28</v>
-      </c>
-      <c r="T12" t="s">
-        <v>52</v>
-      </c>
       <c r="U12" t="s">
         <v>28</v>
       </c>
       <c r="V12" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1285,25 +1267,25 @@
         <v>37</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M13" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="N13" t="s">
         <v>28</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="P13" t="s">
         <v>28</v>
@@ -1312,19 +1294,19 @@
         <v>28</v>
       </c>
       <c r="R13" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="S13" t="s">
         <v>28</v>
       </c>
       <c r="T13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="U13" t="s">
         <v>28</v>
       </c>
       <c r="V13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1462,44 +1444,44 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
         <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" t="s">
         <v>52</v>
       </c>
-      <c r="J16" t="s">
-        <v>58</v>
-      </c>
-      <c r="K16" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" t="s">
-        <v>53</v>
-      </c>
-      <c r="M16" t="s">
-        <v>40</v>
-      </c>
-      <c r="N16" t="s">
-        <v>28</v>
-      </c>
-      <c r="O16" t="s">
-        <v>45</v>
-      </c>
       <c r="P16" t="s">
         <v>28</v>
       </c>
@@ -1507,19 +1489,19 @@
         <v>28</v>
       </c>
       <c r="R16" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="S16" t="s">
         <v>28</v>
       </c>
       <c r="T16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U16" t="s">
         <v>28</v>
       </c>
       <c r="V16" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:22">
@@ -1592,43 +1574,43 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
         <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
         <v>28</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="K18" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="L18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N18" t="s">
         <v>28</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="P18" t="s">
         <v>28</v>
@@ -1637,7 +1619,7 @@
         <v>28</v>
       </c>
       <c r="R18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="S18" t="s">
         <v>28</v>
@@ -1649,7 +1631,7 @@
         <v>28</v>
       </c>
       <c r="V18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="2:22">
@@ -1799,31 +1781,31 @@
         <v>28</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M21" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="N21" t="s">
         <v>28</v>
       </c>
       <c r="O21" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="P21" t="s">
         <v>28</v>
@@ -1832,13 +1814,13 @@
         <v>28</v>
       </c>
       <c r="R21" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="S21" t="s">
         <v>28</v>
       </c>
       <c r="T21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="U21" t="s">
         <v>28</v>
